--- a/MyBot/Static/Numbers.xlsx
+++ b/MyBot/Static/Numbers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zooml\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zooml\PycharmProjects\MyBot\Static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33F071B-1BA6-4817-997D-827736EC3046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CD798C-71DE-4AD3-B0BA-BBF18FDDC0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,56 +72,56 @@
     <t>+7123227</t>
   </si>
   <si>
-    <t>+7123228</t>
-  </si>
-  <si>
-    <t>+7123229</t>
-  </si>
-  <si>
-    <t>+7123230</t>
-  </si>
-  <si>
-    <t>+7123231</t>
-  </si>
-  <si>
-    <t>+7123232</t>
-  </si>
-  <si>
-    <t>+7123233</t>
-  </si>
-  <si>
-    <t>+7123234</t>
-  </si>
-  <si>
-    <t>+7123235</t>
-  </si>
-  <si>
-    <t>+7123236</t>
-  </si>
-  <si>
-    <t>+7123237</t>
-  </si>
-  <si>
-    <t>+7123238</t>
-  </si>
-  <si>
-    <t>+7123239</t>
-  </si>
-  <si>
-    <t>+7123240</t>
-  </si>
-  <si>
-    <t>+7123241</t>
-  </si>
-  <si>
-    <t>+7123242</t>
+    <t>co75007</t>
+  </si>
+  <si>
+    <t>co75008</t>
+  </si>
+  <si>
+    <t>co75009</t>
+  </si>
+  <si>
+    <t>co75010</t>
+  </si>
+  <si>
+    <t>co75011</t>
+  </si>
+  <si>
+    <t>co75012</t>
+  </si>
+  <si>
+    <t>co75013</t>
+  </si>
+  <si>
+    <t>co75014</t>
+  </si>
+  <si>
+    <t>co75015</t>
+  </si>
+  <si>
+    <t>co75016</t>
+  </si>
+  <si>
+    <t>co75017</t>
+  </si>
+  <si>
+    <t>co75018</t>
+  </si>
+  <si>
+    <t>co75019</t>
+  </si>
+  <si>
+    <t>co75020</t>
+  </si>
+  <si>
+    <t>co75021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,9 +163,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -442,163 +450,180 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
